--- a/Assignments/Assignment 3/Vosburg-Assignment3-ExcelStatics.xlsx
+++ b/Assignments/Assignment 3/Vosburg-Assignment3-ExcelStatics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethanvosburg/Documents/git/ENGR-220-MatLab/Assignments/Assignment 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004BF749-8003-BD4B-B52F-0B5B3F0D37EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C9EB70-8B65-AA43-B2D2-68E97C770B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{8E03375C-2DFC-0E46-8F6B-AE30B8C74293}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{8E03375C-2DFC-0E46-8F6B-AE30B8C74293}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,13 +373,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2017,8 +2020,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6646333" y="609601"/>
-          <a:ext cx="2286000" cy="4546598"/>
+          <a:off x="6623049" y="615157"/>
+          <a:ext cx="2280180" cy="4575702"/>
           <a:chOff x="6756399" y="270935"/>
           <a:chExt cx="2286000" cy="4512731"/>
         </a:xfrm>
@@ -2681,10 +2684,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:K63"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="192" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2703,64 +2706,64 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
@@ -2769,84 +2772,84 @@
       <c r="C10" s="5">
         <v>800</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="19">
         <v>70</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="13"/>
+      <c r="E13" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="10">
+      <c r="B15" s="11">
         <f>-COS(RADIANS(30))</f>
         <v>-0.86602540378443871</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="11">
         <f>-COS(RADIANS(60))</f>
         <v>-0.50000000000000011</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="11">
         <f>-800*COS(RADIANS(30))</f>
         <v>-692.82032302755101</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <f>-SIN(RADIANS(30))</f>
         <v>-0.49999999999999994</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="11">
         <f>SIN(RADIANS(60))</f>
         <v>0.8660254037844386</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <f>F10*9.8-C10*SIN(RADIANS(30))</f>
         <v>286.00000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="14" cm="1">
+      <c r="C23" s="15" cm="1">
         <f t="array" ref="C23:C24">MMULT(MINVERSE(B15:C16),E15:E16)</f>
         <v>456.99999999999994</v>
       </c>
@@ -2858,7 +2861,7 @@
       <c r="B24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="16">
         <v>594.093426996125</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2866,11 +2869,11 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
@@ -2891,96 +2894,96 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -2992,7 +2995,7 @@
       <c r="D42" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3004,11 +3007,11 @@
         <f>$C$10-(SIN(RADIANS(30)))*B43*9.8</f>
         <v>751</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="22">
         <f>COS(RADIANS(30))*B43*9.8</f>
         <v>84.870489570875009</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="21">
         <v>500</v>
       </c>
     </row>
@@ -3020,11 +3023,11 @@
         <f t="shared" ref="C44:C52" si="0">$C$10-(SIN(RADIANS(30)))*B44*9.8</f>
         <v>702</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="22">
         <f t="shared" ref="D44:D52" si="1">COS(RADIANS(30))*B44*9.8</f>
         <v>169.74097914175002</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="21">
         <v>500</v>
       </c>
     </row>
@@ -3036,11 +3039,11 @@
         <f t="shared" si="0"/>
         <v>653</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="22">
         <f t="shared" si="1"/>
         <v>254.611468712625</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="21">
         <v>500</v>
       </c>
     </row>
@@ -3052,11 +3055,11 @@
         <f t="shared" si="0"/>
         <v>604</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="22">
         <f t="shared" si="1"/>
         <v>339.48195828350003</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="21">
         <v>500</v>
       </c>
     </row>
@@ -3068,11 +3071,11 @@
         <f t="shared" si="0"/>
         <v>555</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="22">
         <f t="shared" si="1"/>
         <v>424.35244785437504</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="21">
         <v>500</v>
       </c>
     </row>
@@ -3084,11 +3087,11 @@
         <f t="shared" si="0"/>
         <v>506</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="22">
         <f t="shared" si="1"/>
         <v>509.22293742525</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="21">
         <v>500</v>
       </c>
     </row>
@@ -3100,11 +3103,11 @@
         <f t="shared" si="0"/>
         <v>457.00000000000006</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="22">
         <f t="shared" si="1"/>
         <v>594.093426996125</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="21">
         <v>500</v>
       </c>
     </row>
@@ -3116,11 +3119,11 @@
         <f t="shared" si="0"/>
         <v>408.00000000000006</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="22">
         <f t="shared" si="1"/>
         <v>678.96391656700007</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="21">
         <v>500</v>
       </c>
     </row>
@@ -3132,11 +3135,11 @@
         <f t="shared" si="0"/>
         <v>359.00000000000006</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="22">
         <f t="shared" si="1"/>
         <v>763.83440613787491</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="21">
         <v>500</v>
       </c>
     </row>
@@ -3148,11 +3151,11 @@
         <f t="shared" si="0"/>
         <v>310.00000000000006</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="22">
         <f t="shared" si="1"/>
         <v>848.70489570875009</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="21">
         <v>500</v>
       </c>
     </row>
@@ -3160,7 +3163,7 @@
       <c r="B60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="23">
         <f>500/(SLOPE(D43:D52,B43:B52))</f>
         <v>58.913292774451605</v>
       </c>
@@ -3170,7 +3173,7 @@
       <c r="F60" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="22">
+      <c r="G60" s="23">
         <f xml:space="preserve"> (500-800)/SLOPE(C43:C52,B43:B52)</f>
         <v>61.224489795918366</v>
       </c>
@@ -3179,22 +3182,64 @@
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
